--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_22.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_22.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F30">
@@ -1679,7 +1679,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1699,49 +1699,6 @@
         </is>
       </c>
       <c r="I31" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>-1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
